--- a/core/utils/distribuicao.xlsx
+++ b/core/utils/distribuicao.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandre\Desktop\projeto ventura backend\project-beck_ventura\core\utils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\ventura_project\ventura_project_frontend\system-ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0571A4A-BF04-44A6-A820-47E7063430C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1948F85F-3593-4151-8008-F546455D0111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -75,13 +75,13 @@
     <t>GG</t>
   </si>
   <si>
-    <t>BERMUDA SUPLEX</t>
+    <t>londrina</t>
   </si>
   <si>
-    <t>BOTUCATU</t>
+    <t>camiseta manga curta</t>
   </si>
   <si>
-    <t>MASCULINO</t>
+    <t>unissex</t>
   </si>
 </sst>
 </file>
@@ -664,7 +664,7 @@
   <dimension ref="A1:L143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>18</v>
@@ -753,10 +753,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>18</v>
@@ -789,10 +789,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>18</v>
@@ -827,10 +827,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>18</v>
@@ -850,7 +850,9 @@
       <c r="I5" s="12">
         <v>5</v>
       </c>
-      <c r="J5" s="16"/>
+      <c r="J5" s="16">
+        <v>600</v>
+      </c>
       <c r="K5" s="16"/>
       <c r="L5" s="14"/>
     </row>
